--- a/data/trans_orig/P36BPD03_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>32823</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21703</v>
+        <v>22513</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49735</v>
+        <v>47961</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0476488003116596</v>
+        <v>0.04764880031165959</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03150636832568136</v>
+        <v>0.03268162677839104</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07219970570263738</v>
+        <v>0.06962363167027832</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -762,19 +762,19 @@
         <v>28934</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21392</v>
+        <v>21528</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39104</v>
+        <v>39202</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03952784192074883</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02922460826015505</v>
+        <v>0.02941009305533269</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05342201220280487</v>
+        <v>0.05355483919285874</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -783,19 +783,19 @@
         <v>61757</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48820</v>
+        <v>48128</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80961</v>
+        <v>79813</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04346506125016375</v>
+        <v>0.04346506125016374</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0343595872711755</v>
+        <v>0.03387272461310367</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05698083536575909</v>
+        <v>0.05617275760584327</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>166443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>142434</v>
+        <v>143327</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189787</v>
+        <v>191305</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2416214702663387</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2067676885649401</v>
+        <v>0.2080649909466773</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2755087814008731</v>
+        <v>0.2777131346723575</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -833,19 +833,19 @@
         <v>140805</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>125131</v>
+        <v>125722</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>159080</v>
+        <v>160600</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1923591641445591</v>
+        <v>0.192359164144559</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1709458979217482</v>
+        <v>0.1717540565252188</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2173258539439055</v>
+        <v>0.219401258581288</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>416</v>
@@ -854,19 +854,19 @@
         <v>307248</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>279572</v>
+        <v>278680</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>336416</v>
+        <v>338991</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2162426141683035</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1967636315480243</v>
+        <v>0.1961360194340094</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2367711595290083</v>
+        <v>0.2385835066012371</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>332774</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>306034</v>
+        <v>304511</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>362087</v>
+        <v>360631</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.483080157197762</v>
+        <v>0.4830801571977619</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4442621481597521</v>
+        <v>0.4420510120102488</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.525632251454296</v>
+        <v>0.5235187011417517</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>690</v>
@@ -904,19 +904,19 @@
         <v>394946</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>370968</v>
+        <v>371903</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>416355</v>
+        <v>415124</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5395504593797974</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5067942152977777</v>
+        <v>0.5080705914600373</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5687987072122281</v>
+        <v>0.5671167999582477</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1066</v>
@@ -925,19 +925,19 @@
         <v>727720</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>692740</v>
+        <v>691447</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>761720</v>
+        <v>764550</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5121724142542545</v>
+        <v>0.5121724142542546</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4875529112172252</v>
+        <v>0.4866432937803652</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5361017113957921</v>
+        <v>0.538093428636614</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>156818</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>130801</v>
+        <v>132734</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>184321</v>
+        <v>185532</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2276495722242398</v>
+        <v>0.2276495722242397</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1898799765029115</v>
+        <v>0.1926869926282095</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2675738718031176</v>
+        <v>0.2693327468022467</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>269</v>
@@ -975,19 +975,19 @@
         <v>167305</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>147975</v>
+        <v>149647</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>187101</v>
+        <v>187529</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2285625345548948</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2021540455744865</v>
+        <v>0.2044391216351304</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2556061281951491</v>
+        <v>0.2561906059961606</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>410</v>
@@ -996,19 +996,19 @@
         <v>324124</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>292793</v>
+        <v>295472</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>357876</v>
+        <v>358263</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2281199103272783</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2060686544992047</v>
+        <v>0.2079545029864535</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2518745406330232</v>
+        <v>0.2521469011144766</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>46919</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>32669</v>
+        <v>33463</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>65258</v>
+        <v>64083</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04477359193320898</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03117510578220594</v>
+        <v>0.03193288248451907</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06227387519601431</v>
+        <v>0.06115269453976075</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>40</v>
@@ -1121,19 +1121,19 @@
         <v>29604</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>21707</v>
+        <v>20310</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>41264</v>
+        <v>40188</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02769875075990611</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02031024211002845</v>
+        <v>0.01900321520516475</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03860897132221756</v>
+        <v>0.03760186061467767</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>79</v>
@@ -1142,19 +1142,19 @@
         <v>76523</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>60219</v>
+        <v>60289</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>98207</v>
+        <v>98153</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03615202854981261</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02844980209811718</v>
+        <v>0.02848293823320131</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04639673981740653</v>
+        <v>0.04637088424120993</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>226490</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>198275</v>
+        <v>199398</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>258579</v>
+        <v>258849</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2161345855045936</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1892089929739105</v>
+        <v>0.1902807998559935</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2467566087110083</v>
+        <v>0.2470138464043748</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>250</v>
@@ -1192,19 +1192,19 @@
         <v>178696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157845</v>
+        <v>159082</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>201751</v>
+        <v>205628</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1671973890771738</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1476876921087788</v>
+        <v>0.1488454613230721</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1887688315924652</v>
+        <v>0.1923961451135687</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>464</v>
@@ -1213,19 +1213,19 @@
         <v>405186</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>370917</v>
+        <v>369969</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>445426</v>
+        <v>444238</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.191424830577889</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1752346467584664</v>
+        <v>0.1747865903832375</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.210435618442048</v>
+        <v>0.2098741204487422</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>550436</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>512246</v>
+        <v>512163</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>585702</v>
+        <v>587975</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5252691192945733</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4888253109068719</v>
+        <v>0.4887461522511157</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5589224231751688</v>
+        <v>0.5610916357075723</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>895</v>
@@ -1263,19 +1263,19 @@
         <v>624327</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>594632</v>
+        <v>593282</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>650492</v>
+        <v>652146</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5841524059243147</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5563674583409977</v>
+        <v>0.5551049091098574</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.608632834852681</v>
+        <v>0.6101809199836918</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1419</v>
@@ -1284,19 +1284,19 @@
         <v>1174763</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1122711</v>
+        <v>1129202</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1219960</v>
+        <v>1222919</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5550009324779818</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5304096619283208</v>
+        <v>0.533475944519621</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5763536487256609</v>
+        <v>0.5777516402559237</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>224068</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>195471</v>
+        <v>192874</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>255398</v>
+        <v>255753</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.213822703267624</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1865338966545584</v>
+        <v>0.1840551198253897</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.243720722017028</v>
+        <v>0.2440589387283681</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>328</v>
@@ -1334,19 +1334,19 @@
         <v>236147</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>214291</v>
+        <v>213772</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>261446</v>
+        <v>261843</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2209514542386055</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2005012584226918</v>
+        <v>0.2000155810747369</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2446217065309641</v>
+        <v>0.2449936214864505</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>514</v>
@@ -1355,19 +1355,19 @@
         <v>460215</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>423607</v>
+        <v>423409</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>499508</v>
+        <v>501101</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2174222083943166</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2001274366662512</v>
+        <v>0.2000337527668594</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2359856207726386</v>
+        <v>0.2367385091370404</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>55747</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38905</v>
+        <v>41150</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76135</v>
+        <v>76476</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06941761346878551</v>
+        <v>0.06941761346878553</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0484451682751032</v>
+        <v>0.05124057363980003</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09480498127847233</v>
+        <v>0.09522958933647499</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -1480,19 +1480,19 @@
         <v>49578</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36459</v>
+        <v>37404</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65865</v>
+        <v>68272</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06103724631842552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04488599810593794</v>
+        <v>0.04604963570442924</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08108889711295429</v>
+        <v>0.08405204437681567</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>96</v>
@@ -1501,19 +1501,19 @@
         <v>105325</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>84404</v>
+        <v>83729</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>134884</v>
+        <v>130015</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06520360213263748</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05225168616832205</v>
+        <v>0.05183409097990883</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08350262328159876</v>
+        <v>0.0804882982200536</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>191121</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>164307</v>
+        <v>164289</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>221556</v>
+        <v>219720</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2379875571093077</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.204597996373739</v>
+        <v>0.2045754253870894</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2758847091673927</v>
+        <v>0.2735989294856809</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>220</v>
@@ -1551,19 +1551,19 @@
         <v>171667</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>152125</v>
+        <v>153300</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>193876</v>
+        <v>195586</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2113447449022831</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1872866538233708</v>
+        <v>0.1887326477560775</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2386874380757402</v>
+        <v>0.2407921552417341</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>377</v>
@@ -1572,19 +1572,19 @@
         <v>362788</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>325040</v>
+        <v>330453</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>396792</v>
+        <v>401168</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2245903979332396</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2012219840051292</v>
+        <v>0.2045731012451504</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2456408967919999</v>
+        <v>0.2483503299784408</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>359856</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>324043</v>
+        <v>327755</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>394650</v>
+        <v>392847</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4480988386847288</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4035031901505294</v>
+        <v>0.4081260468361645</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4914242153121349</v>
+        <v>0.4891797328949995</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>531</v>
@@ -1622,19 +1622,19 @@
         <v>404326</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>378577</v>
+        <v>375829</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>430950</v>
+        <v>428377</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4977791862187623</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4660797058393943</v>
+        <v>0.4626962927080068</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5305576568555775</v>
+        <v>0.5273895984127263</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>839</v>
@@ -1643,19 +1643,19 @@
         <v>764182</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>722433</v>
+        <v>722526</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>807961</v>
+        <v>805343</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.473080267772021</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4472348262563896</v>
+        <v>0.4472927123508131</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5001824812883588</v>
+        <v>0.4985617409180162</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>196348</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>167666</v>
+        <v>171117</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>227748</v>
+        <v>227149</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.244495990737178</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2087804516094776</v>
+        <v>0.2130781663988333</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2835956812174178</v>
+        <v>0.2828501366233687</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>243</v>
@@ -1693,19 +1693,19 @@
         <v>186689</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>164460</v>
+        <v>166489</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>211184</v>
+        <v>210932</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2298388225605291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2024719842969978</v>
+        <v>0.2049709203069772</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2599961445904987</v>
+        <v>0.2596857004047513</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>411</v>
@@ -1714,19 +1714,19 @@
         <v>383037</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>348872</v>
+        <v>350609</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>421274</v>
+        <v>419279</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2371257321621019</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2159751971111854</v>
+        <v>0.2170505487193809</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2607971474693692</v>
+        <v>0.259562329981846</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>63329</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48725</v>
+        <v>48053</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>82053</v>
+        <v>81837</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06408320435967381</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04930590241691611</v>
+        <v>0.04862535539409419</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08303065566353994</v>
+        <v>0.08281206475127352</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -1839,19 +1839,19 @@
         <v>50661</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37813</v>
+        <v>39436</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64762</v>
+        <v>68525</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04532536728650097</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03383110781445171</v>
+        <v>0.03528302380856367</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05794162516725646</v>
+        <v>0.06130867667182602</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>124</v>
@@ -1860,19 +1860,19 @@
         <v>113989</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95606</v>
+        <v>93608</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>137749</v>
+        <v>136164</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0541276026058457</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04539833028773517</v>
+        <v>0.04444984848622056</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06541012002191203</v>
+        <v>0.06465723491702415</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>232055</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>205965</v>
+        <v>202355</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260246</v>
+        <v>260414</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2348204914464521</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.208418943102842</v>
+        <v>0.2047659090537872</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2633466806711067</v>
+        <v>0.2635175515835674</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>302</v>
@@ -1910,19 +1910,19 @@
         <v>223975</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>200336</v>
+        <v>200648</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>249512</v>
+        <v>249540</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.200386631574648</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1792378981397785</v>
+        <v>0.1795167424425824</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2232347533983624</v>
+        <v>0.2232596395236268</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>523</v>
@@ -1931,19 +1931,19 @@
         <v>456030</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>420215</v>
+        <v>421545</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>494504</v>
+        <v>497845</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2165449411048253</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1995384827650065</v>
+        <v>0.2001700089094788</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2348146459644024</v>
+        <v>0.236401064470161</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>470893</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>439772</v>
+        <v>439178</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>505824</v>
+        <v>504890</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.476504086641066</v>
+        <v>0.4765040866410661</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4450124283014491</v>
+        <v>0.4444116826305042</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5118511512805043</v>
+        <v>0.5109067559115863</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>800</v>
@@ -1981,19 +1981,19 @@
         <v>559221</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>530064</v>
+        <v>530016</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>590944</v>
+        <v>589649</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5003265533415387</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4742397970895488</v>
+        <v>0.4741968837620976</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5287086285662088</v>
+        <v>0.5275497349651208</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1312</v>
@@ -2002,19 +2002,19 @@
         <v>1030113</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>984417</v>
+        <v>981998</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1073135</v>
+        <v>1073481</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4891477080958513</v>
+        <v>0.4891477080958514</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.467448934395577</v>
+        <v>0.4663001220501071</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5095763060392129</v>
+        <v>0.5097408444062203</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>221947</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>192315</v>
+        <v>197325</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>249464</v>
+        <v>255899</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2245922175528081</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1946071387829316</v>
+        <v>0.1996767919847446</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2524364800958843</v>
+        <v>0.2589487931504589</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>395</v>
@@ -2052,19 +2052,19 @@
         <v>283856</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>258929</v>
+        <v>257396</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>311895</v>
+        <v>311801</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2539614477973124</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2316599843189627</v>
+        <v>0.2302883218833823</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2790474170265302</v>
+        <v>0.2789634681586132</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>605</v>
@@ -2073,19 +2073,19 @@
         <v>505803</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>472860</v>
+        <v>466136</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>544754</v>
+        <v>545713</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2401797481934775</v>
+        <v>0.2401797481934776</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2245369332939182</v>
+        <v>0.2213437712699746</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2586755909397231</v>
+        <v>0.2591311482740365</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>198818</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>172449</v>
+        <v>170359</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>239954</v>
+        <v>235977</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05635323512110369</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04887901885833602</v>
+        <v>0.04828670107128149</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06801291502449398</v>
+        <v>0.06688566662904691</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>199</v>
@@ -2198,19 +2198,19 @@
         <v>158776</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>136128</v>
+        <v>135916</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>183151</v>
+        <v>183484</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04255902209217846</v>
+        <v>0.04255902209217847</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03648812576086877</v>
+        <v>0.03643149544268569</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04909245840560111</v>
+        <v>0.04918173469259161</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>371</v>
@@ -2219,19 +2219,19 @@
         <v>357595</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>319429</v>
+        <v>318510</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>398627</v>
+        <v>395812</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0492635606631669</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04400569969095795</v>
+        <v>0.04387909420687835</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05491630910062913</v>
+        <v>0.05452847625473194</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>816110</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>766534</v>
+        <v>759925</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>876474</v>
+        <v>871970</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2313191705136227</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2172673348930682</v>
+        <v>0.2153939642843195</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2484288055731146</v>
+        <v>0.2471523025710798</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1006</v>
@@ -2269,19 +2269,19 @@
         <v>715142</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>673101</v>
+        <v>671112</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>757564</v>
+        <v>762915</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1916894122547657</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1804206141641533</v>
+        <v>0.1798872689515423</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2030602110352823</v>
+        <v>0.2044944798958436</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1780</v>
@@ -2290,19 +2290,19 @@
         <v>1531252</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1461651</v>
+        <v>1461569</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1601665</v>
+        <v>1605270</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2109510578628411</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2013624807231602</v>
+        <v>0.2013512494066652</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2206513209252878</v>
+        <v>0.2211480000127516</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>1713959</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1647798</v>
+        <v>1645216</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1783721</v>
+        <v>1782929</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4858066287056739</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4670537916748067</v>
+        <v>0.4663220227996347</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5055801013888402</v>
+        <v>0.5053553809477449</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2916</v>
@@ -2340,19 +2340,19 @@
         <v>1982819</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1923998</v>
+        <v>1920101</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2034388</v>
+        <v>2030123</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5314821643834031</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5157154053043993</v>
+        <v>0.5146710088693253</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5453047568122901</v>
+        <v>0.5441616836340526</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4636</v>
@@ -2361,19 +2361,19 @@
         <v>3696778</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3613270</v>
+        <v>3611993</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3782802</v>
+        <v>3782434</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5092820294384265</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4977775848025818</v>
+        <v>0.4976016585776268</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5211329807516328</v>
+        <v>0.5210823021276481</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>799182</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>740180</v>
+        <v>742823</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>857856</v>
+        <v>856363</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2265209656595998</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2097973648152211</v>
+        <v>0.2105465319501877</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2431515864794215</v>
+        <v>0.2427284847597286</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1235</v>
@@ -2411,19 +2411,19 @@
         <v>873997</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>826161</v>
+        <v>831674</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>918935</v>
+        <v>923040</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2342694012696528</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2214471232370492</v>
+        <v>0.2229248581133152</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2463148255634411</v>
+        <v>0.2474151426339053</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1940</v>
@@ -2432,19 +2432,19 @@
         <v>1673179</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1603323</v>
+        <v>1606432</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1748157</v>
+        <v>1752222</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2305033520355655</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2208797155327799</v>
+        <v>0.2213080473726835</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.240832592603001</v>
+        <v>0.2413926378815323</v>
       </c>
     </row>
     <row r="28">
